--- a/data/東京近郊駅データ.xlsx
+++ b/data/東京近郊駅データ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fukushige\Desktop\git\station_data_visualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fukushige\Desktop\git\station_data_visualization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE3E5C-F97F-476A-8DF4-73DC1B0C79E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C86477-B0F1-4339-A965-2EC8410931A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="施設ポートフォリオ" sheetId="1" r:id="rId1"/>
@@ -3922,15 +3922,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4002,10 +4002,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{413EC3C3-1496-4DAD-BCF2-2BB475449EFA}" name="テーブル2" displayName="テーブル2" ref="A1:Q529" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{413EC3C3-1496-4DAD-BCF2-2BB475449EFA}" name="テーブル2" displayName="テーブル2" ref="A1:Q529" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:Q529" xr:uid="{930065C1-E5EC-43BB-A427-3B80125B9492}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{84926FC7-BFDF-4B1C-B03B-2CCEA3BED0AA}" name="id" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{84926FC7-BFDF-4B1C-B03B-2CCEA3BED0AA}" name="id" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(テーブル2[[#This Row],[駅名]],station_geocode[[name]:[name4]],4,)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{7FCF60D7-51CC-4A8C-BA1C-B1E8274F253F}" name="駅名"/>
@@ -4051,7 +4051,7 @@
   <autoFilter ref="A1:E529" xr:uid="{2271D627-E7BB-4DBE-BCAD-13E5D0907DB3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8C98CA01-354E-4D93-A720-CF647D481C6E}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{793BED00-A0BC-4DF1-B015-572332511613}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{793BED00-A0BC-4DF1-B015-572332511613}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{33F53C87-55B8-4EF5-B089-5C2A86437351}" uniqueName="3" name="name2" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6D47E562-6E15-4FDF-8369-40666BA6369D}" uniqueName="4" name="name3" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{48D3473E-C697-4F51-A770-2160E05CE8C1}" uniqueName="5" name="name4" queryTableFieldId="5"/>
@@ -4359,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T529"/>
   <sheetViews>
-    <sheetView topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="F522" sqref="F522"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -68820,7 +68820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFE306F-236F-4A73-A958-53CBED1E18D7}">
   <dimension ref="A1:E529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B525" workbookViewId="0">
+    <sheetView topLeftCell="B525" workbookViewId="0">
       <selection activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
